--- a/partial/sliding_window_results_window_8.xlsx
+++ b/partial/sliding_window_results_window_8.xlsx
@@ -468,13 +468,13 @@
         <v>29.84</v>
       </c>
       <c r="C2" t="n">
-        <v>30.46084261169721</v>
+        <v>29.81136131286621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6208426116972099</v>
+        <v>-0.02863868713379247</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3854455484990125</v>
+        <v>0.0008201744007472505</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.81</v>
       </c>
       <c r="C3" t="n">
-        <v>30.3136293851742</v>
+        <v>29.75001335144043</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5036293851742037</v>
+        <v>-0.05998664855957259</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2536425576109465</v>
+        <v>0.003598398005409672</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.92</v>
       </c>
       <c r="C4" t="n">
-        <v>30.13339726642423</v>
+        <v>29.76519584655762</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2133972664242272</v>
+        <v>-0.1548041534423845</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0455383933173326</v>
+        <v>0.02396432592301333</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.98</v>
       </c>
       <c r="C5" t="n">
-        <v>29.5414924624566</v>
+        <v>29.79987907409668</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4385075375434049</v>
+        <v>-0.1801209259033243</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1922888604823806</v>
+        <v>0.03244354794827084</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>30.04</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>29.84185823490394</v>
+        <v>30.01015281677246</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1981417650960573</v>
+        <v>-0.0298471832275311</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03926015907538115</v>
+        <v>0.000890854346617814</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>30.21</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>29.47979166439584</v>
+        <v>30.06319236755371</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7302083356041607</v>
+        <v>-0.146807632446297</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5332042133857985</v>
+        <v>0.02155248094448704</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.22</v>
       </c>
       <c r="C8" t="n">
-        <v>29.87264849526314</v>
+        <v>30.18989372253418</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3473515047368636</v>
+        <v>-0.03010627746581918</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1206530678429634</v>
+        <v>0.0009063879428488914</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.38</v>
       </c>
       <c r="C9" t="n">
-        <v>29.77935073574157</v>
+        <v>30.25397300720215</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6006492642584327</v>
+        <v>-0.126026992797847</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3607795386541965</v>
+        <v>0.01588280291366858</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.44</v>
       </c>
       <c r="C10" t="n">
-        <v>30.44265920206595</v>
+        <v>30.50796318054199</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002659202065945721</v>
+        <v>0.06796318054199446</v>
       </c>
       <c r="E10" t="n">
-        <v>7.071355627529988e-06</v>
+        <v>0.004618993909383734</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.48</v>
       </c>
       <c r="C11" t="n">
-        <v>30.30459967519557</v>
+        <v>30.37946128845215</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.175400324804432</v>
+        <v>-0.1005387115478555</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03076527394150025</v>
+        <v>0.0101080325197029</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.69</v>
       </c>
       <c r="C12" t="n">
-        <v>30.50290512388348</v>
+        <v>30.38317680358887</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1870948761165252</v>
+        <v>-0.3068231964111305</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03500449266905791</v>
+        <v>0.09414047385594319</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.75</v>
       </c>
       <c r="C13" t="n">
-        <v>30.21830799828945</v>
+        <v>30.47823143005371</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5316920017105531</v>
+        <v>-0.2717685699462891</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2826963846829748</v>
+        <v>0.07385815561065101</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.94</v>
       </c>
       <c r="C14" t="n">
-        <v>30.59245223777145</v>
+        <v>30.61132621765137</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3475477622285545</v>
+        <v>-0.3286737823486305</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1207894470300759</v>
+        <v>0.108026455203355</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.95</v>
       </c>
       <c r="C15" t="n">
-        <v>30.80364098242264</v>
+        <v>30.73988914489746</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1463590175773639</v>
+        <v>-0.2101108551025419</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02142096202621112</v>
+        <v>0.04414657143192136</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.02</v>
       </c>
       <c r="C16" t="n">
-        <v>31.36656043165091</v>
+        <v>31.15546226501465</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3465604316509072</v>
+        <v>0.1354622650146524</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1201041327860631</v>
+        <v>0.01835002524289992</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.12</v>
       </c>
       <c r="C17" t="n">
-        <v>31.68489189263112</v>
+        <v>31.3719310760498</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5648918926311168</v>
+        <v>0.2519310760498001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3191028503603652</v>
+        <v>0.06346926707961018</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.28</v>
       </c>
       <c r="C18" t="n">
-        <v>31.75686389033347</v>
+        <v>31.45668601989746</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4768638903334725</v>
+        <v>0.1766860198974598</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2273991699039741</v>
+        <v>0.03121794962720556</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.38</v>
       </c>
       <c r="C19" t="n">
-        <v>31.45407467582688</v>
+        <v>31.35834312438965</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07407467582687843</v>
+        <v>-0.02165687561034702</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005487057598857128</v>
+        <v>0.0004690202612020434</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.58</v>
       </c>
       <c r="C20" t="n">
-        <v>31.8120608275237</v>
+        <v>31.55037498474121</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2320608275236999</v>
+        <v>-0.02962501525878736</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05385222767098441</v>
+        <v>0.0008776415290833837</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>31.65</v>
+        <v>31.65000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>31.76596772281332</v>
+        <v>32.06996536254883</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1159677228133233</v>
+        <v>0.4199653625488224</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0134485127345078</v>
+        <v>0.1763709057407639</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.88</v>
       </c>
       <c r="C22" t="n">
-        <v>32.43375460424933</v>
+        <v>32.6776237487793</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5537546042493311</v>
+        <v>0.7976237487793014</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3066441617273333</v>
+        <v>0.6362036446167462</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.28</v>
       </c>
       <c r="C23" t="n">
-        <v>32.27985246042758</v>
+        <v>32.63322830200195</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.000147539572417088</v>
+        <v>0.353228302001952</v>
       </c>
       <c r="E23" t="n">
-        <v>2.176792542901716e-08</v>
+        <v>0.1247702333351822</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.45</v>
       </c>
       <c r="C24" t="n">
-        <v>32.39661297351034</v>
+        <v>32.70923233032227</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.05338702648966631</v>
+        <v>0.2592323303222628</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002850174597408332</v>
+        <v>0.06720140108431076</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>32.85</v>
+        <v>32.84999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>32.67578202833903</v>
+        <v>32.97509384155273</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1742179716609726</v>
+        <v>0.1250938415527401</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03035190164966347</v>
+        <v>0.01564846919442204</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>32.9</v>
+        <v>32.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>32.81481145591957</v>
+        <v>33.11442184448242</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.08518854408042387</v>
+        <v>0.2144218444824162</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00725708804254232</v>
+        <v>0.04597672739124147</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="n">
-        <v>33.1</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>33.16627362188297</v>
+        <v>33.00744247436523</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0662736218829636</v>
+        <v>-0.09255752563475994</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004392192957486031</v>
+        <v>0.008566895551629244</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>23</v>
       </c>
       <c r="B28" t="n">
-        <v>33.4</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>33.80167156610683</v>
+        <v>33.61306381225586</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4016715661068275</v>
+        <v>0.2130638122558537</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1613400470187115</v>
+        <v>0.04539618809299767</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.7</v>
       </c>
       <c r="C29" t="n">
-        <v>33.8928305017434</v>
+        <v>33.67734146118164</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1928305017434013</v>
+        <v>-0.02265853881836222</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03718360240261191</v>
+        <v>0.0005134093813832275</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>21</v>
       </c>
       <c r="B30" t="n">
-        <v>34.1</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>33.97715446023061</v>
+        <v>33.8823127746582</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1228455397693935</v>
+        <v>-0.2176872253417912</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01509102664123364</v>
+        <v>0.04738772807700778</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="n">
-        <v>34.4</v>
+        <v>34.40000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>34.28860731142814</v>
+        <v>34.47198104858398</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1113926885718541</v>
+        <v>0.07198104858397869</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01240833106726608</v>
+        <v>0.0051812713552491</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>19</v>
       </c>
       <c r="B32" t="n">
-        <v>34.9</v>
+        <v>34.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>34.58950825248252</v>
+        <v>35.08790969848633</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3104917475174815</v>
+        <v>0.1879096984863224</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0964051252764595</v>
+        <v>0.03531005478522061</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.3</v>
       </c>
       <c r="C33" t="n">
-        <v>35.42654727823895</v>
+        <v>35.6751823425293</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1265472782389523</v>
+        <v>0.3751823425292997</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01601421362968681</v>
+        <v>0.1407617901457728</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.7</v>
       </c>
       <c r="C34" t="n">
-        <v>35.8361645363849</v>
+        <v>35.94461441040039</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1361645363848965</v>
+        <v>0.2446144104003878</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01854078096891379</v>
+        <v>0.05983620977552934</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.3</v>
       </c>
       <c r="C35" t="n">
-        <v>36.03483059126058</v>
+        <v>36.12253189086914</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2651694087394176</v>
+        <v>-0.1774681091308565</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07031481533121234</v>
+        <v>0.0314949297584816</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.8</v>
       </c>
       <c r="C36" t="n">
-        <v>36.94288902953851</v>
+        <v>36.61664962768555</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1428890295385159</v>
+        <v>-0.1833503723144503</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02041727476245887</v>
+        <v>0.03361735902784754</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>37.3</v>
       </c>
       <c r="C37" t="n">
-        <v>36.98994414241223</v>
+        <v>37.1579704284668</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3100558575877699</v>
+        <v>-0.1420295715332003</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09613463482448743</v>
+        <v>0.02017239918990446</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>13</v>
       </c>
       <c r="B38" t="n">
-        <v>37.9</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>37.91515213975342</v>
+        <v>37.8542594909668</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01515213975342533</v>
+        <v>-0.04574050903320881</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0002295873391073323</v>
+        <v>0.002092194166617057</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>38.5</v>
       </c>
       <c r="C39" t="n">
-        <v>38.53633178318749</v>
+        <v>38.33866500854492</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0363317831874852</v>
+        <v>-0.1613349914550781</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001319998469582432</v>
+        <v>0.02602897946781013</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>38.9</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>38.91602012685559</v>
+        <v>39.00360488891602</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01602012685558662</v>
+        <v>0.1036048889160099</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0002566444644690878</v>
+        <v>0.01073397300729876</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>10</v>
       </c>
       <c r="B41" t="n">
-        <v>39.4</v>
+        <v>39.40000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>39.31561336749532</v>
+        <v>39.52373123168945</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.08438663250468181</v>
+        <v>0.1237312316894474</v>
       </c>
       <c r="E41" t="n">
-        <v>0.007121103745480221</v>
+        <v>0.01530941769538772</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>9</v>
       </c>
       <c r="B42" t="n">
-        <v>39.9</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>39.60958554336428</v>
+        <v>39.62896347045898</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2904144566357161</v>
+        <v>-0.2710365295410213</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08434055662301822</v>
+        <v>0.07346080034564091</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>40.1</v>
+        <v>40.09999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>39.71877382572521</v>
+        <v>39.96549606323242</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.3812261742747864</v>
+        <v>-0.1345039367675724</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1453333959521899</v>
+        <v>0.01809130900597513</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>40.6</v>
+        <v>40.59999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>39.85890062012768</v>
+        <v>40.37540817260742</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.7410993798723169</v>
+        <v>-0.2245918273925724</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5492282908471326</v>
+        <v>0.05044148893153505</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="n">
-        <v>40.9</v>
+        <v>40.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>40.13962008394929</v>
+        <v>40.5744743347168</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.7603799160507094</v>
+        <v>-0.3255256652832088</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5781776167332839</v>
+        <v>0.1059669587580757</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>41.2</v>
+        <v>41.20000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>41.00237829539187</v>
+        <v>41.21307373046875</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1976217046081317</v>
+        <v>0.01307373046874005</v>
       </c>
       <c r="E46" t="n">
-        <v>0.03905433813222365</v>
+        <v>0.000170922428369262</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.5</v>
       </c>
       <c r="C47" t="n">
-        <v>41.19383041310699</v>
+        <v>41.28318023681641</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.306169586893013</v>
+        <v>-0.2168197631835938</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09373981593823823</v>
+        <v>0.04701080970698968</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.8</v>
       </c>
       <c r="C48" t="n">
-        <v>41.77428316239367</v>
+        <v>41.82052230834961</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.02571683760633192</v>
+        <v>0.02052230834961222</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0006613557364704477</v>
+        <v>0.0004211651399965633</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.2</v>
       </c>
       <c r="C49" t="n">
-        <v>42.15662985333856</v>
+        <v>41.57979202270508</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.04337014666144512</v>
+        <v>-0.6202079772949247</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001880969621435259</v>
+        <v>0.3846579351002619</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.7</v>
       </c>
       <c r="C50" t="n">
-        <v>43.11398189751841</v>
+        <v>43.23081970214844</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4139818975184042</v>
+        <v>0.5308197021484347</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1713810114729385</v>
+        <v>0.2817695561889529</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>43.7</v>
       </c>
       <c r="C51" t="n">
-        <v>43.64995434627891</v>
+        <v>43.8011360168457</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.05004565372109226</v>
+        <v>0.1011360168457074</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002504567456371476</v>
+        <v>0.01022849390341521</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-2.763714210893195</v>
+        <v>-0.07380088806155527</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>5.731464566825553</v>
+        <v>3.070135179046037</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1146292913365111</v>
+        <v>0.06140270358092074</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_8.xlsx
+++ b/partial/sliding_window_results_window_8.xlsx
@@ -468,13 +468,13 @@
         <v>29.84</v>
       </c>
       <c r="C2" t="n">
-        <v>29.81136131286621</v>
+        <v>29.95431327819824</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02863868713379247</v>
+        <v>0.1143132781982388</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0008201744007472505</v>
+        <v>0.01306752557242793</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.81</v>
       </c>
       <c r="C3" t="n">
-        <v>29.75001335144043</v>
+        <v>29.91201591491699</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05998664855957259</v>
+        <v>0.1020159149169899</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003598398005409672</v>
+        <v>0.01040724689635053</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.92</v>
       </c>
       <c r="C4" t="n">
-        <v>29.76519584655762</v>
+        <v>29.8887996673584</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1548041534423845</v>
+        <v>-0.03120033264160327</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02396432592301333</v>
+        <v>0.0009734607569466943</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.98</v>
       </c>
       <c r="C5" t="n">
-        <v>29.79987907409668</v>
+        <v>29.8791332244873</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1801209259033243</v>
+        <v>-0.1008667755126993</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03244354794827084</v>
+        <v>0.01017410640232927</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.03999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>30.01015281677246</v>
+        <v>30.09675407409668</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0298471832275311</v>
+        <v>0.05675407409668765</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000890854346617814</v>
+        <v>0.003221024926572312</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.21000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>30.06319236755371</v>
+        <v>30.04460716247559</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.146807632446297</v>
+        <v>-0.165392837524422</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02155248094448704</v>
+        <v>0.02735479070437986</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.22</v>
       </c>
       <c r="C8" t="n">
-        <v>30.18989372253418</v>
+        <v>30.20683860778809</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.03010627746581918</v>
+        <v>-0.01316139221191293</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0009063879428488914</v>
+        <v>0.0001732222449558022</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.38</v>
       </c>
       <c r="C9" t="n">
-        <v>30.25397300720215</v>
+        <v>30.16429710388184</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.126026992797847</v>
+        <v>-0.2157028961181595</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01588280291366858</v>
+        <v>0.04652773939376151</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.44</v>
       </c>
       <c r="C10" t="n">
-        <v>30.50796318054199</v>
+        <v>30.48808097839355</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06796318054199446</v>
+        <v>0.04808097839355696</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004618993909383734</v>
+        <v>0.002311780483281691</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.48</v>
       </c>
       <c r="C11" t="n">
-        <v>30.37946128845215</v>
+        <v>30.3957347869873</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1005387115478555</v>
+        <v>-0.08426521301269929</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0101080325197029</v>
+        <v>0.007100626124075586</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.69</v>
       </c>
       <c r="C12" t="n">
-        <v>30.38317680358887</v>
+        <v>30.43102073669434</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3068231964111305</v>
+        <v>-0.2589792633056618</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09414047385594319</v>
+        <v>0.0670702588223433</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.75</v>
       </c>
       <c r="C13" t="n">
-        <v>30.47823143005371</v>
+        <v>30.37497520446777</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2717685699462891</v>
+        <v>-0.3750247955322266</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07385815561065101</v>
+        <v>0.1406435972639883</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.94</v>
       </c>
       <c r="C14" t="n">
-        <v>30.61132621765137</v>
+        <v>30.63819694519043</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3286737823486305</v>
+        <v>-0.301803054809568</v>
       </c>
       <c r="E14" t="n">
-        <v>0.108026455203355</v>
+        <v>0.09108508389238713</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.95</v>
       </c>
       <c r="C15" t="n">
-        <v>30.73988914489746</v>
+        <v>30.77667045593262</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2101108551025419</v>
+        <v>-0.1733295440673857</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04414657143192136</v>
+        <v>0.03004313084660779</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.02</v>
       </c>
       <c r="C16" t="n">
-        <v>31.15546226501465</v>
+        <v>31.27430534362793</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1354622650146524</v>
+        <v>0.2543053436279337</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01835002524289992</v>
+        <v>0.06467120779772143</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.12</v>
       </c>
       <c r="C17" t="n">
-        <v>31.3719310760498</v>
+        <v>31.46086692810059</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2519310760498001</v>
+        <v>0.3408669281005814</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06346926707961018</v>
+        <v>0.1161902626727269</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.28</v>
       </c>
       <c r="C18" t="n">
-        <v>31.45668601989746</v>
+        <v>31.56464958190918</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1766860198974598</v>
+        <v>0.2846495819091786</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03121794962720556</v>
+        <v>0.08102538448107015</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.38</v>
       </c>
       <c r="C19" t="n">
-        <v>31.35834312438965</v>
+        <v>31.30183219909668</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.02165687561034702</v>
+        <v>-0.07816780090331577</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0004690202612020434</v>
+        <v>0.006110205098060413</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.58</v>
       </c>
       <c r="C20" t="n">
-        <v>31.55037498474121</v>
+        <v>31.51363182067871</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.02962501525878736</v>
+        <v>-0.06636817932128736</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0008776415290833837</v>
+        <v>0.004404735226422555</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.65000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>32.06996536254883</v>
+        <v>32.05646133422852</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4199653625488224</v>
+        <v>0.4064613342285099</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1763709057407639</v>
+        <v>0.1652108162228205</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.88</v>
       </c>
       <c r="C22" t="n">
-        <v>32.6776237487793</v>
+        <v>32.6670036315918</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7976237487793014</v>
+        <v>0.7870036315918014</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6362036446167462</v>
+        <v>0.6193747161386839</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.28</v>
       </c>
       <c r="C23" t="n">
-        <v>32.63322830200195</v>
+        <v>32.46706008911133</v>
       </c>
       <c r="D23" t="n">
-        <v>0.353228302001952</v>
+        <v>0.187060089111327</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1247702333351822</v>
+        <v>0.0349914769383376</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.45</v>
       </c>
       <c r="C24" t="n">
-        <v>32.70923233032227</v>
+        <v>32.55629348754883</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2592323303222628</v>
+        <v>0.1062934875488253</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06720140108431076</v>
+        <v>0.01129830549529228</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.84999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>32.97509384155273</v>
+        <v>32.78789901733398</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1250938415527401</v>
+        <v>-0.06210098266600994</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01564846919442204</v>
+        <v>0.003856532048084067</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>33.11442184448242</v>
+        <v>32.95949172973633</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2144218444824162</v>
+        <v>0.05949172973632244</v>
       </c>
       <c r="E26" t="n">
-        <v>0.04597672739124147</v>
+        <v>0.003539265907019632</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.09999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>33.00744247436523</v>
+        <v>32.73028945922852</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.09255752563475994</v>
+        <v>-0.3697105407714787</v>
       </c>
       <c r="E27" t="n">
-        <v>0.008566895551629244</v>
+        <v>0.1366858839575392</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.40000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>33.61306381225586</v>
+        <v>33.58372116088867</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2130638122558537</v>
+        <v>0.1837211608886662</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04539618809299767</v>
+        <v>0.03375346495827917</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.7</v>
       </c>
       <c r="C29" t="n">
-        <v>33.67734146118164</v>
+        <v>33.57869338989258</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.02265853881836222</v>
+        <v>-0.1213066101074247</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0005134093813832275</v>
+        <v>0.01471529365575476</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.09999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>33.8823127746582</v>
+        <v>33.7921257019043</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2176872253417912</v>
+        <v>-0.3078742980956974</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04738772807700778</v>
+        <v>0.09478658342791837</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.40000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>34.47198104858398</v>
+        <v>34.39065170288086</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07198104858397869</v>
+        <v>-0.009348297119146309</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0051812713552491</v>
+        <v>8.739065902783919e-05</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>35.08790969848633</v>
+        <v>35.04306411743164</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1879096984863224</v>
+        <v>0.1430641174316349</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03531005478522061</v>
+        <v>0.02046734169649263</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.3</v>
       </c>
       <c r="C33" t="n">
-        <v>35.6751823425293</v>
+        <v>35.74344253540039</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3751823425292997</v>
+        <v>0.4434425354003935</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1407617901457728</v>
+        <v>0.1966412822023292</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.7</v>
       </c>
       <c r="C34" t="n">
-        <v>35.94461441040039</v>
+        <v>36.03592300415039</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2446144104003878</v>
+        <v>0.3359230041503878</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05983620977552934</v>
+        <v>0.1128442647174214</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.3</v>
       </c>
       <c r="C35" t="n">
-        <v>36.12253189086914</v>
+        <v>36.00293350219727</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1774681091308565</v>
+        <v>-0.2970664978027315</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0314949297584816</v>
+        <v>0.0882485041167803</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.8</v>
       </c>
       <c r="C36" t="n">
-        <v>36.61664962768555</v>
+        <v>36.59221267700195</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1833503723144503</v>
+        <v>-0.207787322998044</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03361735902784754</v>
+        <v>0.04317557159869348</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>37.3</v>
       </c>
       <c r="C37" t="n">
-        <v>37.1579704284668</v>
+        <v>37.20040512084961</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1420295715332003</v>
+        <v>-0.09959487915038778</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02017239918990446</v>
+        <v>0.009919139952980348</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>37.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>37.8542594909668</v>
+        <v>38.06371688842773</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.04574050903320881</v>
+        <v>0.1637168884277287</v>
       </c>
       <c r="E38" t="n">
-        <v>0.002092194166617057</v>
+        <v>0.02680321955645737</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>38.5</v>
       </c>
       <c r="C39" t="n">
-        <v>38.33866500854492</v>
+        <v>38.60438919067383</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1613349914550781</v>
+        <v>0.1043891906738281</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02602897946781013</v>
+        <v>0.01089710312953684</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>38.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>39.00360488891602</v>
+        <v>39.24204635620117</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1036048889160099</v>
+        <v>0.3420463562011662</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01073397300729876</v>
+        <v>0.1169957097904951</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>39.40000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>39.52373123168945</v>
+        <v>39.70172500610352</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1237312316894474</v>
+        <v>0.3017250061035099</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01530941769538772</v>
+        <v>0.09103797930816311</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>39.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>39.62896347045898</v>
+        <v>39.9236946105957</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2710365295410213</v>
+        <v>0.02369461059569744</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07346080034564091</v>
+        <v>0.0005614345712817374</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.09999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>39.96549606323242</v>
+        <v>39.86377334594727</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1345039367675724</v>
+        <v>-0.2362266540527287</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01809130900597513</v>
+        <v>0.05580303208494756</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.59999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>40.37540817260742</v>
+        <v>40.20842361450195</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2245918273925724</v>
+        <v>-0.3915763854980412</v>
       </c>
       <c r="E44" t="n">
-        <v>0.05044148893153505</v>
+        <v>0.1533320656797106</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>40.5744743347168</v>
+        <v>40.37612533569336</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.3255256652832088</v>
+        <v>-0.5238746643066463</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1059669587580757</v>
+        <v>0.2744446639024014</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.20000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>41.21307373046875</v>
+        <v>41.01548385620117</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01307373046874005</v>
+        <v>-0.1845161437988381</v>
       </c>
       <c r="E46" t="n">
-        <v>0.000170922428369262</v>
+        <v>0.03404620732239349</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.5</v>
       </c>
       <c r="C47" t="n">
-        <v>41.28318023681641</v>
+        <v>41.01554489135742</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2168197631835938</v>
+        <v>-0.4844551086425781</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04701080970698968</v>
+        <v>0.2346967522898922</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.8</v>
       </c>
       <c r="C48" t="n">
-        <v>41.82052230834961</v>
+        <v>41.50202560424805</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02052230834961222</v>
+        <v>-0.2979743957519503</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0004211651399965633</v>
+        <v>0.08878874052373989</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.2</v>
       </c>
       <c r="C49" t="n">
-        <v>41.57979202270508</v>
+        <v>41.55921936035156</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.6202079772949247</v>
+        <v>-0.6407806396484403</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3846579351002619</v>
+        <v>0.4105998281482643</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.7</v>
       </c>
       <c r="C50" t="n">
-        <v>43.23081970214844</v>
+        <v>43.55632400512695</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5308197021484347</v>
+        <v>0.8563240051269503</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2817695561889529</v>
+        <v>0.7332908017566612</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>43.7</v>
       </c>
       <c r="C51" t="n">
-        <v>43.8011360168457</v>
+        <v>44.21758270263672</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1011360168457074</v>
+        <v>0.517582702636723</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01022849390341521</v>
+        <v>0.2678918540687344</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-0.07380088806155527</v>
+        <v>0.06447044372555411</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>3.070135179046037</v>
+        <v>4.811340615432543</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.06140270358092074</v>
+        <v>0.09622681230865085</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_8.xlsx
+++ b/partial/sliding_window_results_window_8.xlsx
@@ -468,13 +468,13 @@
         <v>29.84</v>
       </c>
       <c r="C2" t="n">
-        <v>30.46084261169721</v>
+        <v>30.26572128279039</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6208426116972099</v>
+        <v>0.4257212827903949</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3854455484990125</v>
+        <v>0.1812386106206994</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.81</v>
       </c>
       <c r="C3" t="n">
-        <v>30.3136293851742</v>
+        <v>30.13497992549404</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5036293851742037</v>
+        <v>0.3249799254940449</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2536425576109465</v>
+        <v>0.105611951974115</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.92</v>
       </c>
       <c r="C4" t="n">
-        <v>30.13339726642423</v>
+        <v>29.88282032601017</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2133972664242272</v>
+        <v>-0.03717967398983291</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0455383933173326</v>
+        <v>0.001382328157990258</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.98</v>
       </c>
       <c r="C5" t="n">
-        <v>29.5414924624566</v>
+        <v>29.89411918165291</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4385075375434049</v>
+        <v>-0.08588081834708561</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1922888604823806</v>
+        <v>0.007375514959965116</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.04</v>
       </c>
       <c r="C6" t="n">
-        <v>29.84185823490394</v>
+        <v>29.94241012696325</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1981417650960573</v>
+        <v>-0.09758987303674971</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03926015907538115</v>
+        <v>0.009523783319328927</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.21</v>
       </c>
       <c r="C7" t="n">
-        <v>29.47979166439584</v>
+        <v>30.00820204159942</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7302083356041607</v>
+        <v>-0.2017979584005793</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5332042133857985</v>
+        <v>0.04072241601464195</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.22</v>
       </c>
       <c r="C8" t="n">
-        <v>29.87264849526314</v>
+        <v>30.14504543960305</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3473515047368636</v>
+        <v>-0.0749545603969537</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1206530678429634</v>
+        <v>0.005618186124300579</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.38</v>
       </c>
       <c r="C9" t="n">
-        <v>29.77935073574157</v>
+        <v>30.20597661290189</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6006492642584327</v>
+        <v>-0.1740233870981065</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3607795386541965</v>
+        <v>0.03028413925709742</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.44</v>
       </c>
       <c r="C10" t="n">
-        <v>30.44265920206595</v>
+        <v>30.49339099702649</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002659202065945721</v>
+        <v>0.05339099702649008</v>
       </c>
       <c r="E10" t="n">
-        <v>7.071355627529988e-06</v>
+        <v>0.002850598563482673</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.48</v>
       </c>
       <c r="C11" t="n">
-        <v>30.30459967519557</v>
+        <v>30.50756586496083</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.175400324804432</v>
+        <v>0.02756586496083102</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03076527394150025</v>
+        <v>0.0007598769110387715</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.69</v>
       </c>
       <c r="C12" t="n">
-        <v>30.50290512388348</v>
+        <v>30.51637331853345</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1870948761165252</v>
+        <v>-0.1736266814665548</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03500449266905791</v>
+        <v>0.03014622451708848</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.75</v>
       </c>
       <c r="C13" t="n">
-        <v>30.21830799828945</v>
+        <v>30.73448260021426</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5316920017105531</v>
+        <v>-0.01551739978573963</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2826963846829748</v>
+        <v>0.0002407896961104722</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.94</v>
       </c>
       <c r="C14" t="n">
-        <v>30.59245223777145</v>
+        <v>30.86336916496587</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3475477622285545</v>
+        <v>-0.07663083503413404</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1207894470300759</v>
+        <v>0.005872284878028665</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.95</v>
       </c>
       <c r="C15" t="n">
-        <v>30.80364098242264</v>
+        <v>31.03914848366619</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1463590175773639</v>
+        <v>0.08914848366618955</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02142096202621112</v>
+        <v>0.007947452139980864</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.02</v>
       </c>
       <c r="C16" t="n">
-        <v>31.36656043165091</v>
+        <v>31.21170990337458</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3465604316509072</v>
+        <v>0.1917099033745835</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1201041327860631</v>
+        <v>0.03675268705189214</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.12</v>
       </c>
       <c r="C17" t="n">
-        <v>31.68489189263112</v>
+        <v>31.27962889131896</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5648918926311168</v>
+        <v>0.1596288913189596</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3191028503603652</v>
+        <v>0.02548138294372023</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.28</v>
       </c>
       <c r="C18" t="n">
-        <v>31.75686389033347</v>
+        <v>31.11440397279001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4768638903334725</v>
+        <v>-0.1655960272099897</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2273991699039741</v>
+        <v>0.02742204422773164</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.38</v>
       </c>
       <c r="C19" t="n">
-        <v>31.45407467582688</v>
+        <v>30.89072679564211</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07407467582687843</v>
+        <v>-0.4892732043578896</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005487057598857128</v>
+        <v>0.2393882685026372</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.58</v>
       </c>
       <c r="C20" t="n">
-        <v>31.8120608275237</v>
+        <v>31.11169872854706</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2320608275236999</v>
+        <v>-0.4683012714529333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05385222767098441</v>
+        <v>0.219306080844434</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.65</v>
       </c>
       <c r="C21" t="n">
-        <v>31.76596772281332</v>
+        <v>31.65519723864403</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1159677228133233</v>
+        <v>0.005197238644029767</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0134485127345078</v>
+        <v>2.701128952299637e-05</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.88</v>
       </c>
       <c r="C22" t="n">
-        <v>32.43375460424933</v>
+        <v>32.54992960015406</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5537546042493311</v>
+        <v>0.6699296001540596</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3066441617273333</v>
+        <v>0.4488056691625781</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.28</v>
       </c>
       <c r="C23" t="n">
-        <v>32.27985246042758</v>
+        <v>32.57320848691319</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.000147539572417088</v>
+        <v>0.293208486913187</v>
       </c>
       <c r="E23" t="n">
-        <v>2.176792542901716e-08</v>
+        <v>0.08597121679792057</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.45</v>
       </c>
       <c r="C24" t="n">
-        <v>32.39661297351034</v>
+        <v>32.77063300299165</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.05338702648966631</v>
+        <v>0.3206330029916487</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002850174597408332</v>
+        <v>0.1028055226074426</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.85</v>
       </c>
       <c r="C25" t="n">
-        <v>32.67578202833903</v>
+        <v>32.97614095206262</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1742179716609726</v>
+        <v>0.1261409520626202</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03035190164966347</v>
+        <v>0.01591153978726425</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.9</v>
       </c>
       <c r="C26" t="n">
-        <v>32.81481145591957</v>
+        <v>33.03574193207213</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.08518854408042387</v>
+        <v>0.1357419320721291</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00725708804254232</v>
+        <v>0.01842587212267452</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.1</v>
       </c>
       <c r="C27" t="n">
-        <v>33.16627362188297</v>
+        <v>33.2519920345837</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0662736218829636</v>
+        <v>0.1519920345836994</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004392192957486031</v>
+        <v>0.02310157857689247</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.4</v>
       </c>
       <c r="C28" t="n">
-        <v>33.80167156610683</v>
+        <v>33.5578811770355</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4016715661068275</v>
+        <v>0.157881177035506</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1613400470187115</v>
+        <v>0.02492646606211678</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.7</v>
       </c>
       <c r="C29" t="n">
-        <v>33.8928305017434</v>
+        <v>33.6559370622993</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1928305017434013</v>
+        <v>-0.04406293770070135</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03718360240261191</v>
+        <v>0.001941542478815889</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.1</v>
       </c>
       <c r="C30" t="n">
-        <v>33.97715446023061</v>
+        <v>33.75523765042924</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1228455397693935</v>
+        <v>-0.3447623495707646</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01509102664123364</v>
+        <v>0.1188610776815541</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.4</v>
       </c>
       <c r="C31" t="n">
-        <v>34.28860731142814</v>
+        <v>34.32940713013046</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1113926885718541</v>
+        <v>-0.07059286986953595</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01240833106726608</v>
+        <v>0.004983353276417236</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.9</v>
       </c>
       <c r="C32" t="n">
-        <v>34.58950825248252</v>
+        <v>34.63000944736938</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3104917475174815</v>
+        <v>-0.2699905526306168</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0964051252764595</v>
+        <v>0.07289489850978585</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.3</v>
       </c>
       <c r="C33" t="n">
-        <v>35.42654727823895</v>
+        <v>35.70998493816687</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1265472782389523</v>
+        <v>0.4099849381668719</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01601421362968681</v>
+        <v>0.1680876495236938</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.7</v>
       </c>
       <c r="C34" t="n">
-        <v>35.8361645363849</v>
+        <v>35.96754034663636</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1361645363848965</v>
+        <v>0.2675403466363591</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01854078096891379</v>
+        <v>0.07157783707830316</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.3</v>
       </c>
       <c r="C35" t="n">
-        <v>36.03483059126058</v>
+        <v>36.3516462931155</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2651694087394176</v>
+        <v>0.05164629311550328</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07031481533121234</v>
+        <v>0.002667339592572482</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.8</v>
       </c>
       <c r="C36" t="n">
-        <v>36.94288902953851</v>
+        <v>36.87240230435085</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1428890295385159</v>
+        <v>0.07240230435085238</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02041727476245887</v>
+        <v>0.005242093675313457</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>37.3</v>
       </c>
       <c r="C37" t="n">
-        <v>36.98994414241223</v>
+        <v>37.02096205104752</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3100558575877699</v>
+        <v>-0.2790379489524781</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09613463482448743</v>
+        <v>0.07786217695560579</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>37.9</v>
       </c>
       <c r="C38" t="n">
-        <v>37.91515213975342</v>
+        <v>37.86916685439945</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01515213975342533</v>
+        <v>-0.03083314560055328</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0002295873391073323</v>
+        <v>0.0009506828676249181</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>38.5</v>
       </c>
       <c r="C39" t="n">
-        <v>38.53633178318749</v>
+        <v>38.57339737651738</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0363317831874852</v>
+        <v>0.07339737651738432</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001319998469582432</v>
+        <v>0.005387174879634678</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>38.9</v>
       </c>
       <c r="C40" t="n">
-        <v>38.91602012685559</v>
+        <v>39.13221582775235</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01602012685558662</v>
+        <v>0.2322158277523556</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0002566444644690878</v>
+        <v>0.05392419065871169</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>39.4</v>
       </c>
       <c r="C41" t="n">
-        <v>39.31561336749532</v>
+        <v>39.44683827096657</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.08438663250468181</v>
+        <v>0.04683827096657467</v>
       </c>
       <c r="E41" t="n">
-        <v>0.007121103745480221</v>
+        <v>0.002193823627138272</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>39.9</v>
       </c>
       <c r="C42" t="n">
-        <v>39.60958554336428</v>
+        <v>39.72154326227819</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2904144566357161</v>
+        <v>-0.1784567377218096</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08434055662301822</v>
+        <v>0.03184680723831074</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.1</v>
       </c>
       <c r="C43" t="n">
-        <v>39.71877382572521</v>
+        <v>39.76597028438642</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.3812261742747864</v>
+        <v>-0.3340297156135819</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1453333959521899</v>
+        <v>0.1115758509128904</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.6</v>
       </c>
       <c r="C44" t="n">
-        <v>39.85890062012768</v>
+        <v>39.89940613788547</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.7410993798723169</v>
+        <v>-0.7005938621145305</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5492282908471326</v>
+        <v>0.4908317596325537</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.9</v>
       </c>
       <c r="C45" t="n">
-        <v>40.13962008394929</v>
+        <v>40.18810999186909</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.7603799160507094</v>
+        <v>-0.7118900081309079</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5781776167332839</v>
+        <v>0.506787383676624</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.2</v>
       </c>
       <c r="C46" t="n">
-        <v>41.00237829539187</v>
+        <v>41.19510746503966</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1976217046081317</v>
+        <v>-0.004892534960340811</v>
       </c>
       <c r="E46" t="n">
-        <v>0.03905433813222365</v>
+        <v>2.393689833815706e-05</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.5</v>
       </c>
       <c r="C47" t="n">
-        <v>41.19383041310699</v>
+        <v>41.27281613400426</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.306169586893013</v>
+        <v>-0.227183865995741</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09373981593823823</v>
+        <v>0.05161250896877081</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.8</v>
       </c>
       <c r="C48" t="n">
-        <v>41.77428316239367</v>
+        <v>41.706695964021</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.02571683760633192</v>
+        <v>-0.09330403597899561</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0006613557364704477</v>
+        <v>0.008705643129969708</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.2</v>
       </c>
       <c r="C49" t="n">
-        <v>42.15662985333856</v>
+        <v>42.37774458888481</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.04337014666144512</v>
+        <v>0.1777445888848064</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001880969621435259</v>
+        <v>0.03159313887782884</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.7</v>
       </c>
       <c r="C50" t="n">
-        <v>43.11398189751841</v>
+        <v>43.50534887802869</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4139818975184042</v>
+        <v>0.8053488780286884</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1713810114729385</v>
+        <v>0.6485868153420672</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>43.7</v>
       </c>
       <c r="C51" t="n">
-        <v>43.64995434627891</v>
+        <v>43.92497559223219</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.05004565372109226</v>
+        <v>0.224975592232191</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002504567456371476</v>
+        <v>0.05061401710022508</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-2.763714210893195</v>
+        <v>0.1449619343228541</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>5.731464566825553</v>
+        <v>4.216651199693445</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1146292913365111</v>
+        <v>0.08433302399386891</v>
       </c>
     </row>
   </sheetData>
